--- a/Code/Resultados_Analisis/Analisis_Global/efectos_ciudades_detallados.xlsx
+++ b/Code/Resultados_Analisis/Analisis_Global/efectos_ciudades_detallados.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1554451931091353</v>
+        <v>-0.1705029610435088</v>
       </c>
       <c r="D2" t="n">
-        <v>5.360589023507188e-05</v>
+        <v>5.316692876144311e-06</v>
       </c>
     </row>
     <row r="3">
@@ -476,14 +476,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Salt_Lake_UT</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2062805222800906</v>
+        <v>-0.2254180846681812</v>
       </c>
       <c r="D3" t="n">
-        <v>7.572581101487742e-39</v>
+        <v>1.976011260979809e-13</v>
       </c>
     </row>
     <row r="4">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4389341170652891</v>
+        <v>0.4510710219151058</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22489695507998e-14</v>
+        <v>3.624451337696947e-16</v>
       </c>
     </row>
     <row r="5">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1277.964977089915</v>
+        <v>1205.887240513735</v>
       </c>
       <c r="D5" t="n">
-        <v>1.558141976100856e-13</v>
+        <v>5.76756131071835e-13</v>
       </c>
     </row>
     <row r="6">
@@ -530,14 +530,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Santa_Fe_NM</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-327.6475014923637</v>
+        <v>-362.1834404914982</v>
       </c>
       <c r="D6" t="n">
-        <v>1.900403194443397e-19</v>
+        <v>1.074106715352674e-10</v>
       </c>
     </row>
     <row r="7">
@@ -548,14 +548,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Santa_Fe_NM</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-35.59572291456165</v>
+        <v>-47.5679835139464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0002612969445376116</v>
+        <v>0.001674937881886709</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-164.9812794035151</v>
+        <v>-196.6695617837759</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001253117403638376</v>
+        <v>8.047969717390316e-05</v>
       </c>
     </row>
     <row r="9">
@@ -588,10 +588,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4389341170652891</v>
+        <v>0.4510710219151058</v>
       </c>
       <c r="D9" t="n">
-        <v>1.22489695507998e-14</v>
+        <v>3.624451337696947e-16</v>
       </c>
     </row>
     <row r="10">
@@ -602,14 +602,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Salt_Lake_UT</t>
+          <t>Peachtree_GA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2062805222800906</v>
+        <v>-0.2254180846681812</v>
       </c>
       <c r="D10" t="n">
-        <v>7.572581101487742e-39</v>
+        <v>1.976011260979809e-13</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.02547757967369912</v>
+        <v>-0.03091166641122196</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006230331426711453</v>
+        <v>0.0006038460801057356</v>
       </c>
     </row>
     <row r="12">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1299676134354361</v>
+        <v>-0.1395912946322868</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002027948616756485</v>
+        <v>4.078355004204446e-05</v>
       </c>
     </row>
   </sheetData>
